--- a/medicine/Autisme/Alexis_Wineman/Alexis_Wineman.xlsx
+++ b/medicine/Autisme/Alexis_Wineman/Alexis_Wineman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alexis Wineman est une défenseuse de la cause de l'autisme[1] et mannequin américaine, qui a été nommée Miss Montana (en) 2012[1]. Elle a remporté le « Choix de l'Amérique » lors de la cérémonie du concours de Miss America 2013[1] et est la première candidate autiste au concours de Miss America[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alexis Wineman est une défenseuse de la cause de l'autisme et mannequin américaine, qui a été nommée Miss Montana (en) 2012. Elle a remporté le « Choix de l'Amérique » lors de la cérémonie du concours de Miss America 2013 et est la première candidate autiste au concours de Miss America,.
 </t>
         </is>
       </c>
@@ -511,11 +523,13 @@
           <t>Arrière-plan</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Wineman vient de Cut Bank (Montana) ; depuis enfant, elle s'est toujours sentie différente[4] et elle a été victime d'intimidations[5],[6]. Elle a dit qu'elle a commencé à comprendre pourquoi, après avoir été diagnostiquée atteinte d'un trouble envahissant du développement non spécifié (TED-ns), dans le spectre de l'autisme, à l'âge de 11 ans[7]. À partir de 2014, elle a été étudiante de premier cycle au Huntingdon Collège à Montgomery (Alabama)[8].
-Wineman n'a pas grandi avec un intérêt pour les concours de beauté, affirmant qu'elle tenait plutôt la place de la « jeune fille à capuche. Je ne portais jamais de maquillage. Je n'étais pas trop coquette – pour être honnête, je ne le suis pas encore tout à fait »[6]. Elle a été la plus jeune concourante de Miss America 2013[2] âgée de 18 ans.
-Sa sœur aînée, Danielle Wineman (en), a été nommée Miss Montana 2015 en juin 2015[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Wineman vient de Cut Bank (Montana) ; depuis enfant, elle s'est toujours sentie différente et elle a été victime d'intimidations,. Elle a dit qu'elle a commencé à comprendre pourquoi, après avoir été diagnostiquée atteinte d'un trouble envahissant du développement non spécifié (TED-ns), dans le spectre de l'autisme, à l'âge de 11 ans. À partir de 2014, elle a été étudiante de premier cycle au Huntingdon Collège à Montgomery (Alabama).
+Wineman n'a pas grandi avec un intérêt pour les concours de beauté, affirmant qu'elle tenait plutôt la place de la « jeune fille à capuche. Je ne portais jamais de maquillage. Je n'étais pas trop coquette – pour être honnête, je ne le suis pas encore tout à fait ». Elle a été la plus jeune concourante de Miss America 2013 âgée de 18 ans.
+Sa sœur aînée, Danielle Wineman (en), a été nommée Miss Montana 2015 en juin 2015.
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>(en) Alexis. Wineman, « Miss Montana: Autism doesn't define me », CNN,‎ 17 janvier 2013 (lire en ligne)</t>
         </is>
@@ -574,7 +590,9 @@
           <t>Clips vidéo et interviews</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Vote pour Miss Montana 2012 Alexis Wineman - Miss America
 Miss America Candidat Fait l'Histoire - ABC News
